--- a/MemoryManagerBV201/Benchmarks/32-bit/diff.xlsx
+++ b/MemoryManagerBV201/Benchmarks/32-bit/diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git.1\FastCodeBenchmark\MemoryManagerBV201\Benchmarks\32-bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE91FAB-CB2A-411E-94A0-1E9874A67A2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F195BC-AB61-4DFD-8F91-5653D54B1BCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2880" windowWidth="21600" windowHeight="11535" xr2:uid="{F157FEF8-972F-458B-94AF-4AE2A85E72D4}"/>
+    <workbookView xWindow="3218" yWindow="3218" windowWidth="21600" windowHeight="11535" xr2:uid="{F157FEF8-972F-458B-94AF-4AE2A85E72D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Benchmark</t>
   </si>
@@ -243,7 +243,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Diff</t>
+    <t>Diff (20-19)</t>
+  </si>
+  <si>
+    <t>Diff (21-19)</t>
+  </si>
+  <si>
+    <t>Diff (21-20)</t>
   </si>
 </sst>
 </file>
@@ -608,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54076F80-F444-4F63-BD1B-11B55F38491C}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -619,9 +625,10 @@
     <col min="1" max="1" width="46.1328125" customWidth="1"/>
     <col min="2" max="2" width="11.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -634,8 +641,17 @@
       <c r="D1" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="3">
+        <v>44337</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -649,8 +665,19 @@
         <f>C2-B2</f>
         <v>-514</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="1">
+        <v>5091</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2-B2</f>
+        <v>-638</v>
+      </c>
+      <c r="G2" s="1">
+        <f>E2-C2</f>
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -664,8 +691,19 @@
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
         <v>1355</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="1">
+        <v>30579</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F66" si="1">E3-B3</f>
+        <v>70</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G66" si="2">E3-C3</f>
+        <v>-1285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -679,8 +717,19 @@
         <f t="shared" si="0"/>
         <v>1105</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="1">
+        <v>18697</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>-23</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>-1128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -694,8 +743,19 @@
         <f t="shared" si="0"/>
         <v>-567</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="1">
+        <v>9453</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>-798</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>-231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -709,8 +769,19 @@
         <f t="shared" si="0"/>
         <v>3444</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="1">
+        <v>9011</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>-1071</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>-4515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -724,8 +795,19 @@
         <f t="shared" si="0"/>
         <v>931</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="1">
+        <v>3290</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>-239</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>-1170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -739,8 +821,19 @@
         <f t="shared" si="0"/>
         <v>687</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8" s="1">
+        <v>9102</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>-419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -754,8 +847,19 @@
         <f t="shared" si="0"/>
         <v>1478</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" s="1">
+        <v>22840</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>-1210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -769,8 +873,19 @@
         <f t="shared" si="0"/>
         <v>502</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10" s="1">
+        <v>14751</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>-172</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>-674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -784,8 +899,19 @@
         <f t="shared" si="0"/>
         <v>609</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" s="1">
+        <v>18563</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>-582</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>-1191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -799,8 +925,19 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" s="1">
+        <v>1921</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -814,8 +951,19 @@
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="1">
+        <v>10439</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>-139</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>-398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -829,8 +977,19 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14" s="1">
+        <v>380</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -844,8 +1003,19 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" s="1">
+        <v>2300</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>-22</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -859,8 +1029,19 @@
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="1">
+        <v>4907</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>-389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -874,8 +1055,19 @@
         <f t="shared" si="0"/>
         <v>4077</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" s="1">
+        <v>80430</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>-1246</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>-5323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -889,8 +1081,19 @@
         <f t="shared" si="0"/>
         <v>-392</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" s="1">
+        <v>13598</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>-995</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>-603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -904,8 +1107,19 @@
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" s="1">
+        <v>12333</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>-379</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>-546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -919,8 +1133,19 @@
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" s="1">
+        <v>13526</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>-148</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>-611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -934,8 +1159,19 @@
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21" s="1">
+        <v>15752</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>-472</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>-703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -949,8 +1185,19 @@
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22" s="1">
+        <v>14983</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>-317</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>-659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -964,8 +1211,19 @@
         <f t="shared" si="0"/>
         <v>635</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E23" s="1">
+        <v>15001</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>-22</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>-657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -979,8 +1237,19 @@
         <f t="shared" si="0"/>
         <v>-53</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24" s="1">
+        <v>5171</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>-174</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -994,8 +1263,19 @@
         <f t="shared" si="0"/>
         <v>-358</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25" s="1">
+        <v>5416</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>-357</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1009,8 +1289,19 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E26" s="1">
+        <v>4110</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>-128</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>-189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -1024,8 +1315,19 @@
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27" s="1">
+        <v>2816</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1039,8 +1341,19 @@
         <f t="shared" si="0"/>
         <v>-3086</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28" s="1">
+        <v>9159</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>-3568</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>-482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1054,8 +1367,19 @@
         <f t="shared" si="0"/>
         <v>-656</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29" s="1">
+        <v>19611</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>-907</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1069,8 +1393,19 @@
         <f t="shared" si="0"/>
         <v>-1162</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30" s="1">
+        <v>30905</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>-2010</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>-848</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1084,8 +1419,19 @@
         <f t="shared" si="0"/>
         <v>23689</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31" s="1">
+        <v>28761</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>-1164</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>-24853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1099,8 +1445,19 @@
         <f t="shared" si="0"/>
         <v>16611</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32" s="1">
+        <v>35982</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>-66</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="2"/>
+        <v>-16677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
@@ -1114,8 +1471,19 @@
         <f t="shared" si="0"/>
         <v>2589</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E33" s="1">
+        <v>31207</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>-628</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="2"/>
+        <v>-3217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -1129,8 +1497,19 @@
         <f t="shared" si="0"/>
         <v>1805</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E34" s="1">
+        <v>32107</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>-3684</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="2"/>
+        <v>-5489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1144,8 +1523,19 @@
         <f t="shared" si="0"/>
         <v>-281</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E35" s="1">
+        <v>33851</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>-1520</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="2"/>
+        <v>-1239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1159,8 +1549,19 @@
         <f t="shared" si="0"/>
         <v>3690</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36" s="1">
+        <v>38382</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>-549</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="2"/>
+        <v>-4239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1174,8 +1575,19 @@
         <f t="shared" si="0"/>
         <v>24617</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E37" s="1">
+        <v>35929</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>1215</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="2"/>
+        <v>-23402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1189,8 +1601,19 @@
         <f t="shared" si="0"/>
         <v>19685</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E38" s="1">
+        <v>33625</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>-6023</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="2"/>
+        <v>-25708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1204,8 +1627,19 @@
         <f t="shared" si="0"/>
         <v>11914</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E39" s="1">
+        <v>36508</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>-4061</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="2"/>
+        <v>-15975</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -1219,8 +1653,19 @@
         <f t="shared" si="0"/>
         <v>967</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E40" s="1">
+        <v>31857</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>-4064</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="2"/>
+        <v>-5031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1234,8 +1679,19 @@
         <f t="shared" si="0"/>
         <v>2866</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E41" s="1">
+        <v>33269</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>-1985</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="2"/>
+        <v>-4851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -1249,8 +1705,19 @@
         <f t="shared" si="0"/>
         <v>529</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E42" s="1">
+        <v>34241</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>-245</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="2"/>
+        <v>-774</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1264,8 +1731,19 @@
         <f t="shared" si="0"/>
         <v>-1308</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E43" s="1">
+        <v>32951</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>-1453</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="2"/>
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1279,8 +1757,19 @@
         <f t="shared" si="0"/>
         <v>-2371</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E44" s="1">
+        <v>31947</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>-2655</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="2"/>
+        <v>-284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -1294,8 +1783,19 @@
         <f t="shared" si="0"/>
         <v>636</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E45" s="1">
+        <v>34930</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>-1625</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="2"/>
+        <v>-2261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
@@ -1309,8 +1809,19 @@
         <f t="shared" si="0"/>
         <v>-168</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E46" s="1">
+        <v>17849</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>-707</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="2"/>
+        <v>-539</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -1324,8 +1835,19 @@
         <f t="shared" si="0"/>
         <v>1477</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E47" s="1">
+        <v>32054</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>-1711</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="2"/>
+        <v>-3188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -1339,8 +1861,19 @@
         <f t="shared" si="0"/>
         <v>-389</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48" s="1">
+        <v>24697</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -1354,8 +1887,19 @@
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E49" s="1">
+        <v>20987</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="2"/>
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -1369,8 +1913,19 @@
         <f t="shared" si="0"/>
         <v>-543</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50" s="1">
+        <v>19454</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>-521</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -1384,8 +1939,19 @@
         <f t="shared" si="0"/>
         <v>790</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E51" s="1">
+        <v>25113</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>363</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="2"/>
+        <v>-427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -1399,8 +1965,19 @@
         <f t="shared" si="0"/>
         <v>1717</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E52" s="1">
+        <v>19047</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>1867</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -1414,8 +1991,19 @@
         <f t="shared" si="0"/>
         <v>-10336</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E53" s="1">
+        <v>18168</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>-17517</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="2"/>
+        <v>-7181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -1429,8 +2017,19 @@
         <f t="shared" si="0"/>
         <v>25979</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E54" s="1">
+        <v>8048</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>511</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="2"/>
+        <v>-25468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -1444,8 +2043,19 @@
         <f t="shared" si="0"/>
         <v>-1528</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E55" s="1">
+        <v>29235</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>-1605</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="2"/>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -1459,8 +2069,19 @@
         <f t="shared" si="0"/>
         <v>1462</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E56" s="1">
+        <v>29281</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>-1163</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="2"/>
+        <v>-2625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
@@ -1474,8 +2095,19 @@
         <f t="shared" si="0"/>
         <v>-378</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E57" s="1">
+        <v>26285</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>-452</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="2"/>
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -1489,8 +2121,19 @@
         <f t="shared" si="0"/>
         <v>-1242</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E58" s="1">
+        <v>26548</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>-1416</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="2"/>
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -1504,8 +2147,19 @@
         <f t="shared" si="0"/>
         <v>6583</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E59" s="1">
+        <v>26296</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>-799</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="2"/>
+        <v>-7382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -1519,8 +2173,19 @@
         <f t="shared" si="0"/>
         <v>-9255</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E60" s="1">
+        <v>28385</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>-9393</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="2"/>
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -1534,8 +2199,19 @@
         <f t="shared" si="0"/>
         <v>524</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E61" s="1">
+        <v>35889</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>654</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -1549,8 +2225,19 @@
         <f t="shared" si="0"/>
         <v>-5949</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E62" s="1">
+        <v>50042</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>-10245</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="2"/>
+        <v>-4296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -1564,8 +2251,19 @@
         <f t="shared" si="0"/>
         <v>-24272</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E63" s="1">
+        <v>50366</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>418</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="2"/>
+        <v>24690</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
@@ -1579,8 +2277,19 @@
         <f t="shared" si="0"/>
         <v>502</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E64" s="1">
+        <v>7871</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>7753</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="2"/>
+        <v>7251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -1594,8 +2303,19 @@
         <f t="shared" si="0"/>
         <v>-70911</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E65" s="1">
+        <v>37490</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>-67621</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="2"/>
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -1609,8 +2329,19 @@
         <f t="shared" si="0"/>
         <v>-4833</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E66" s="1">
+        <v>29977</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>-655</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="2"/>
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -1621,11 +2352,22 @@
         <v>33985</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D73" si="1">C67-B67</f>
+        <f t="shared" ref="D67:D73" si="3">C67-B67</f>
         <v>1473</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E67" s="1">
+        <v>32600</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F73" si="4">E67-B67</f>
+        <v>88</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" ref="G67:G73" si="5">E67-C67</f>
+        <v>-1385</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -1636,11 +2378,22 @@
         <v>34248</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>644</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E68" s="1">
+        <v>34616</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="4"/>
+        <v>1012</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="5"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -1651,11 +2404,22 @@
         <v>34261</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1361</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E69" s="1">
+        <v>43823</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="4"/>
+        <v>8201</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="5"/>
+        <v>9562</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
@@ -1666,11 +2430,22 @@
         <v>34559</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>617</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E70" s="1">
+        <v>42417</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="4"/>
+        <v>8475</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="5"/>
+        <v>7858</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -1681,11 +2456,22 @@
         <v>35028</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-40013</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E71" s="1">
+        <v>34295</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="4"/>
+        <v>-40746</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="5"/>
+        <v>-733</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -1696,11 +2482,22 @@
         <v>12454</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1468</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E72" s="1">
+        <v>10251</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="4"/>
+        <v>-735</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="5"/>
+        <v>-2203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
@@ -1712,8 +2509,20 @@
         <v>1827133</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-11782</v>
+      </c>
+      <c r="E73" s="2">
+        <f>SUM(E2:E72)</f>
+        <v>1670766</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="4"/>
+        <v>-168149</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="5"/>
+        <v>-156367</v>
       </c>
     </row>
   </sheetData>
